--- a/data/trans_orig/P79_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R2-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>26120</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17553</v>
+        <v>17105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40414</v>
+        <v>38133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03781672570452269</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02541362424533681</v>
+        <v>0.0247644448925989</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05851051055040889</v>
+        <v>0.05520783317411026</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -762,19 +762,19 @@
         <v>22332</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15731</v>
+        <v>15314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33449</v>
+        <v>33711</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03041774446467699</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02142610171597035</v>
+        <v>0.02085828410762643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04555901506234471</v>
+        <v>0.04591627786155427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -783,19 +783,19 @@
         <v>48452</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35954</v>
+        <v>37121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63158</v>
+        <v>64250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0340043717478917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0252328456836812</v>
+        <v>0.02605203789499288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04432469613039958</v>
+        <v>0.04509113809637738</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>664590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>650296</v>
+        <v>652577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673157</v>
+        <v>673605</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9621832742954773</v>
+        <v>0.9621832742954772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9414894894495912</v>
+        <v>0.9447921668258893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9745863757546634</v>
+        <v>0.9752355551074011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1212</v>
@@ -833,19 +833,19 @@
         <v>711848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>700731</v>
+        <v>700469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>718449</v>
+        <v>718866</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.969582255535323</v>
+        <v>0.9695822555353227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9544409849376546</v>
+        <v>0.9540837221384458</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9785738982840297</v>
+        <v>0.9791417158923736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1917</v>
@@ -854,19 +854,19 @@
         <v>1376437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1361731</v>
+        <v>1360639</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1388935</v>
+        <v>1387768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9659956282521083</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9556753038696006</v>
+        <v>0.9549088619036227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9747671543163188</v>
+        <v>0.9739479621050071</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>41256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29150</v>
+        <v>29487</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56902</v>
+        <v>57612</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03933216378974894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02779010974581138</v>
+        <v>0.02811149891918343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05424807041820451</v>
+        <v>0.05492561153413057</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -979,19 +979,19 @@
         <v>48799</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38053</v>
+        <v>36839</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64709</v>
+        <v>65386</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04554396119027385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03551482670127597</v>
+        <v>0.03438132250354862</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06039251532748206</v>
+        <v>0.06102475682573522</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -1000,19 +1000,19 @@
         <v>90055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72596</v>
+        <v>72613</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112702</v>
+        <v>110072</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04247110367544244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03423730027382247</v>
+        <v>0.03424487353364265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05315145844202681</v>
+        <v>0.05191139100759568</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1007661</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>992015</v>
+        <v>991305</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1019767</v>
+        <v>1019430</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9606678362102511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9457519295817954</v>
+        <v>0.9450743884658696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9722098902541888</v>
+        <v>0.9718885010808166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1452</v>
@@ -1050,19 +1050,19 @@
         <v>1022675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1006765</v>
+        <v>1006088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1033421</v>
+        <v>1034635</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9544560388097261</v>
+        <v>0.9544560388097262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9396074846725181</v>
+        <v>0.9389752431742647</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.964485173298724</v>
+        <v>0.9656186774964512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2379</v>
@@ -1071,19 +1071,19 @@
         <v>2030336</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007689</v>
+        <v>2010319</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2047795</v>
+        <v>2047778</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9575288963245574</v>
+        <v>0.9575288963245575</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9468485415579733</v>
+        <v>0.9480886089924045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9657626997261777</v>
+        <v>0.9657551264663579</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>29768</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19057</v>
+        <v>18960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46213</v>
+        <v>44968</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03706823021125368</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02373010722494022</v>
+        <v>0.02360882157902588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05754462505894444</v>
+        <v>0.05599505043898214</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1196,19 +1196,19 @@
         <v>31773</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22005</v>
+        <v>23086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45996</v>
+        <v>47816</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03911638055975139</v>
+        <v>0.0391163805597514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02709072280171698</v>
+        <v>0.02842170832335161</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05662669597157456</v>
+        <v>0.05886844845164087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -1217,19 +1217,19 @@
         <v>61541</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46012</v>
+        <v>46919</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80361</v>
+        <v>80432</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03809812885791788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02848423856077778</v>
+        <v>0.02904580389323644</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04974915714318465</v>
+        <v>0.04979292643330382</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>773305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>756860</v>
+        <v>758105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784016</v>
+        <v>784113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9629317697887463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9424553749410556</v>
+        <v>0.9440049495610177</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9762698927750596</v>
+        <v>0.9763911784209741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1012</v>
@@ -1267,19 +1267,19 @@
         <v>780486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>766263</v>
+        <v>764443</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>790254</v>
+        <v>789173</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9608836194402486</v>
+        <v>0.9608836194402487</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9433733040284252</v>
+        <v>0.9411315515483589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9729092771982828</v>
+        <v>0.9715782916766483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1663</v>
@@ -1288,19 +1288,19 @@
         <v>1553791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1534971</v>
+        <v>1534900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1569320</v>
+        <v>1568413</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9619018711420821</v>
+        <v>0.9619018711420823</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9502508428568152</v>
+        <v>0.9502070735666958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9715157614392219</v>
+        <v>0.9709541961067633</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>49538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36518</v>
+        <v>36632</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64616</v>
+        <v>64756</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05003514403019639</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03688464359404711</v>
+        <v>0.03699950388828123</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06526422850505295</v>
+        <v>0.06540639035670491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1413,19 +1413,19 @@
         <v>48290</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36612</v>
+        <v>37311</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62304</v>
+        <v>61869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04315294099404656</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0327175668236846</v>
+        <v>0.03334228451500548</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05567623581362528</v>
+        <v>0.0552872411439072</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -1434,19 +1434,19 @@
         <v>97828</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78801</v>
+        <v>79379</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118960</v>
+        <v>118161</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04638360696127779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03736215735203227</v>
+        <v>0.03763641402052459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05640299327935737</v>
+        <v>0.05602426377234454</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>940524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925446</v>
+        <v>925306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>953544</v>
+        <v>953430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9499648559698036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9347357714949471</v>
+        <v>0.9345936096432952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9631153564059529</v>
+        <v>0.9630004961117188</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1501</v>
@@ -1484,19 +1484,19 @@
         <v>1070751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1056737</v>
+        <v>1057172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1082429</v>
+        <v>1081730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9568470590059536</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9443237641863749</v>
+        <v>0.9447127588560927</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9672824331763155</v>
+        <v>0.9666577154849947</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2457</v>
@@ -1505,19 +1505,19 @@
         <v>2011276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1990144</v>
+        <v>1990943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2030303</v>
+        <v>2029725</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9536163930387223</v>
+        <v>0.9536163930387221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9435970067206425</v>
+        <v>0.9439757362276555</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9626378426479674</v>
+        <v>0.9623635859794754</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>146683</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122395</v>
+        <v>122679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173301</v>
+        <v>172917</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04152075883530864</v>
+        <v>0.04152075883530863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03464574535480461</v>
+        <v>0.03472594801607191</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04905539762495405</v>
+        <v>0.0489466009003074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>190</v>
@@ -1630,19 +1630,19 @@
         <v>151194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131020</v>
+        <v>128688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>177028</v>
+        <v>174693</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04045910578292512</v>
+        <v>0.04045910578292511</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03506075438050197</v>
+        <v>0.03443670564577304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04737220145009059</v>
+        <v>0.04674736615273024</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>327</v>
@@ -1651,19 +1651,19 @@
         <v>297877</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>265526</v>
+        <v>265580</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>335998</v>
+        <v>335308</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04097502241913239</v>
+        <v>0.04097502241913237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03652493271258254</v>
+        <v>0.03653239970017463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04621879951915979</v>
+        <v>0.0461239848764024</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3386079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3359461</v>
+        <v>3359845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3410367</v>
+        <v>3410083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9584792411646914</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9509446023750464</v>
+        <v>0.9510533990996927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9653542546451955</v>
+        <v>0.9652740519839287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5177</v>
@@ -1701,19 +1701,19 @@
         <v>3585760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3559926</v>
+        <v>3562261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3605934</v>
+        <v>3608266</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.959540894217075</v>
+        <v>0.9595408942170749</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9526277985499096</v>
+        <v>0.9532526338472701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9649392456194982</v>
+        <v>0.9655632943542272</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8416</v>
@@ -1722,19 +1722,19 @@
         <v>6971839</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6933718</v>
+        <v>6934408</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7004190</v>
+        <v>7004136</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9590249775808676</v>
+        <v>0.9590249775808677</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9537812004808403</v>
+        <v>0.9538760151235977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9634750672874175</v>
+        <v>0.9634676002998255</v>
       </c>
     </row>
     <row r="18">
